--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\btic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A79FF-BFEB-4ECD-9C7B-13F9A1C60BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054328D-CC60-49EF-ADA9-20F4662C2F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{42DB1F5F-E96A-4ED9-8521-E2984887AD15}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9810" windowHeight="10185" xr2:uid="{42DB1F5F-E96A-4ED9-8521-E2984887AD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97671AD-A191-4E7B-997B-394C40AB13C2}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
